--- a/xample/demo1/layout_tpl.xlsx
+++ b/xample/demo1/layout_tpl.xlsx
@@ -1511,12 +1511,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L1048576"/>
+  <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A39" activeCellId="0" sqref="A39"/>
+      <selection pane="bottomLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1540,22 +1540,23 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="C1" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="K1" s="5" t="s">
+      <c r="F1" s="6"/>
+      <c r="J1" s="5" t="s">
         <v>5</v>
       </c>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" s="12" customFormat="true" ht="70.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
@@ -2321,7 +2322,7 @@
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="E1:F1"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F3:I65 F68:I85" type="whole">
